--- a/docs/documentos/Requerimientos.xlsx
+++ b/docs/documentos/Requerimientos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabe\Documents\GitHub\CasaDeApuestas\docs\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F358522-FBF9-4680-A056-B3B87A910A73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FDC88C-B2C6-4EB2-8C23-35B9272DE41A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Responsabilidades" sheetId="1" r:id="rId1"/>
@@ -960,7 +960,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1110,21 +1110,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -1209,10 +1194,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1230,6 +1212,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1673,8 +1658,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1693,7 +1678,7 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1702,7 +1687,7 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:9" ht="14.25" customHeight="1"/>
@@ -1773,11 +1758,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
       <c r="G16" s="8" t="s">
         <v>19</v>
       </c>
@@ -1803,7 +1788,7 @@
         <v>279</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="31"/>
+      <c r="D18" s="30"/>
       <c r="G18" s="8" t="s">
         <v>26</v>
       </c>
@@ -1835,11 +1820,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="9">
@@ -1849,7 +1834,7 @@
         <v>278</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="31"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1">
       <c r="A23" s="9">
@@ -1859,7 +1844,7 @@
         <v>279</v>
       </c>
       <c r="C23" s="17"/>
-      <c r="D23" s="28"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="9">
@@ -1888,11 +1873,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
       <c r="G26" t="s">
         <v>39</v>
       </c>
@@ -1905,7 +1890,7 @@
         <v>278</v>
       </c>
       <c r="C27" s="17"/>
-      <c r="D27" s="28"/>
+      <c r="D27" s="19"/>
       <c r="G27" t="s">
         <v>40</v>
       </c>
@@ -1918,7 +1903,7 @@
         <v>279</v>
       </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="19"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1">
       <c r="A29" s="9">
@@ -1928,7 +1913,7 @@
         <v>280</v>
       </c>
       <c r="C29" s="17"/>
-      <c r="D29" s="31"/>
+      <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
       <c r="A30" s="9">
@@ -1941,11 +1926,11 @@
       <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1">
       <c r="A32" s="9">
@@ -1985,14 +1970,14 @@
         <v>281</v>
       </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="31"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1">
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1">
       <c r="A37" s="9">
@@ -2002,7 +1987,7 @@
         <v>278</v>
       </c>
       <c r="C37" s="17"/>
-      <c r="D37" s="31"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1">
       <c r="A38" s="9">
@@ -2012,7 +1997,7 @@
         <v>279</v>
       </c>
       <c r="C38" s="17"/>
-      <c r="D38" s="19"/>
+      <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1">
       <c r="A39" s="9">
@@ -3013,8 +2998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3042,7 +3027,7 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1"/>
@@ -3055,7 +3040,7 @@
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3254,13 +3239,15 @@
       <c r="D17" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G17" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="42.75">
       <c r="A18" s="25" t="s">
@@ -3275,13 +3262,15 @@
       <c r="D18" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G18" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="28.5">
       <c r="A19" s="25" t="s">
@@ -3296,13 +3285,15 @@
       <c r="D19" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G19" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="42.75">
       <c r="A20" s="25" t="s">
@@ -3317,13 +3308,15 @@
       <c r="D20" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G20" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="42.75">
       <c r="A21" s="25" t="s">
@@ -3338,13 +3331,15 @@
       <c r="D21" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G21" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="42.75">
       <c r="A22" s="25" t="s">
@@ -3359,13 +3354,15 @@
       <c r="D22" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G22" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="57">
       <c r="A23" s="25" t="s">
@@ -3380,13 +3377,15 @@
       <c r="D23" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G23" s="37">
+        <v>43598</v>
+      </c>
       <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="57">
@@ -3402,13 +3401,15 @@
       <c r="D24" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G24" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="71.25">
       <c r="A25" s="25" t="s">
@@ -3423,13 +3424,15 @@
       <c r="D25" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G25" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="42.75">
       <c r="A26" s="25" t="s">
@@ -3444,13 +3447,15 @@
       <c r="D26" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G26" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="42.75">
       <c r="A27" s="25" t="s">
@@ -3465,13 +3470,15 @@
       <c r="D27" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G27" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="42.75">
       <c r="A28" s="25" t="s">
@@ -3486,13 +3493,15 @@
       <c r="D28" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G28" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="28.5">
       <c r="A29" s="25" t="s">
@@ -3507,13 +3516,15 @@
       <c r="D29" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G29" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="28.5">
       <c r="A30" s="25" t="s">
@@ -3528,13 +3539,15 @@
       <c r="D30" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G30" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="42.75">
       <c r="A31" s="25" t="s">
@@ -3549,13 +3562,15 @@
       <c r="D31" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G31" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="28.5">
       <c r="A32" s="25" t="s">
@@ -3570,13 +3585,15 @@
       <c r="D32" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G32" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="57">
       <c r="A33" s="25" t="s">
@@ -3591,13 +3608,15 @@
       <c r="D33" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G33" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="57">
       <c r="A34" s="25" t="s">
@@ -3612,13 +3631,15 @@
       <c r="D34" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G34" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="42.75">
       <c r="A35" s="25" t="s">
@@ -3633,13 +3654,15 @@
       <c r="D35" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G35" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="28.5">
       <c r="A36" s="25" t="s">
@@ -3654,13 +3677,15 @@
       <c r="D36" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G36" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="28.5">
       <c r="A37" s="25" t="s">
@@ -3675,13 +3700,15 @@
       <c r="D37" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G37" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="28.5">
       <c r="A38" s="25" t="s">
@@ -3696,13 +3723,15 @@
       <c r="D38" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G38" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="28.5">
       <c r="A39" s="25" t="s">
@@ -3717,13 +3746,15 @@
       <c r="D39" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G39" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="42.75">
       <c r="A40" s="25" t="s">
@@ -3738,13 +3769,15 @@
       <c r="D40" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G40" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="42.75">
       <c r="A41" s="25" t="s">
@@ -3759,13 +3792,15 @@
       <c r="D41" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G41" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="42.75">
       <c r="A42" s="25" t="s">
@@ -3780,13 +3815,15 @@
       <c r="D42" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G42" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="42.75">
       <c r="A43" s="25" t="s">
@@ -3801,13 +3838,15 @@
       <c r="D43" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G43" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="57">
       <c r="A44" s="25" t="s">
@@ -3822,13 +3861,15 @@
       <c r="D44" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G44" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1">
       <c r="A45" s="25" t="s">
@@ -3843,13 +3884,15 @@
       <c r="D45" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G45" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="58.5" customHeight="1">
       <c r="A46" s="25" t="s">
@@ -3864,13 +3907,15 @@
       <c r="D46" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G46" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G46" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1">
       <c r="A47" s="25" t="s">
@@ -3885,13 +3930,15 @@
       <c r="D47" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G47" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1">
       <c r="A48" s="25" t="s">
@@ -3906,13 +3953,15 @@
       <c r="D48" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G48" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="25" t="s">
@@ -3927,13 +3976,15 @@
       <c r="D49" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="E49" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G49" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G49" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1">
       <c r="A50" s="25" t="s">
@@ -3948,13 +3999,15 @@
       <c r="D50" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G50" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" s="25" t="s">
@@ -3969,13 +4022,15 @@
       <c r="D51" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="32" t="s">
+      <c r="E51" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G51" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="25" t="s">
@@ -3990,13 +4045,15 @@
       <c r="D52" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G52" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1">
       <c r="A53" s="25" t="s">
@@ -4011,13 +4068,15 @@
       <c r="D53" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="E53" s="32" t="s">
+      <c r="E53" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G53" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1">
       <c r="A54" s="25" t="s">
@@ -4032,13 +4091,15 @@
       <c r="D54" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E54" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G54" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="33" customHeight="1">
       <c r="A55" s="25" t="s">
@@ -4053,13 +4114,15 @@
       <c r="D55" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="E55" s="32" t="s">
+      <c r="E55" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G55" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="56" spans="1:7" ht="87" customHeight="1">
       <c r="A56" s="25" t="s">
@@ -4074,13 +4137,15 @@
       <c r="D56" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="E56" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G56" s="37">
+        <v>43598</v>
+      </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1">
       <c r="A57" s="25" t="s">
@@ -4095,13 +4160,15 @@
       <c r="D57" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="E57" s="32" t="s">
+      <c r="E57" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G57" s="37">
+        <v>43601</v>
+      </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1">
       <c r="A58" s="25" t="s">
@@ -4116,13 +4183,15 @@
       <c r="D58" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="E58" s="32" t="s">
+      <c r="E58" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G58" s="37">
+        <v>43601</v>
+      </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1">
       <c r="A59" s="25" t="s">
@@ -4137,13 +4206,15 @@
       <c r="D59" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="E59" s="32" t="s">
+      <c r="E59" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G59" s="37">
+        <v>43601</v>
+      </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1">
       <c r="A60" s="25" t="s">
@@ -4158,13 +4229,15 @@
       <c r="D60" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E60" s="32" t="s">
+      <c r="E60" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G60" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G60" s="37">
+        <v>43601</v>
+      </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1">
       <c r="A61" s="25" t="s">
@@ -4179,13 +4252,15 @@
       <c r="D61" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="E61" s="32" t="s">
+      <c r="E61" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G61" s="37">
+        <v>43601</v>
+      </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1">
       <c r="A62" s="25" t="s">
@@ -4200,13 +4275,15 @@
       <c r="D62" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="E62" s="32" t="s">
+      <c r="E62" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G62" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G62" s="37">
+        <v>43601</v>
+      </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1">
       <c r="A63" s="25" t="s">
@@ -4221,13 +4298,15 @@
       <c r="D63" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="E63" s="32" t="s">
+      <c r="E63" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G63" s="37">
+        <v>43601</v>
+      </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1">
       <c r="A64" s="25" t="s">
@@ -4242,13 +4321,15 @@
       <c r="D64" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="32" t="s">
+      <c r="E64" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G64" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G64" s="37">
+        <v>43601</v>
+      </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1">
       <c r="A65" s="25" t="s">
@@ -4263,13 +4344,15 @@
       <c r="D65" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="E65" s="32" t="s">
+      <c r="E65" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G65" s="37">
+        <v>43601</v>
+      </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" customHeight="1">
       <c r="A66" s="25" t="s">
@@ -4284,13 +4367,15 @@
       <c r="D66" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="E66" s="32" t="s">
+      <c r="E66" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G66" s="37">
+        <v>43601</v>
+      </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" customHeight="1">
       <c r="A67" s="25" t="s">
@@ -4305,13 +4390,15 @@
       <c r="D67" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="E67" s="32" t="s">
+      <c r="E67" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G67" s="37">
+        <v>43601</v>
+      </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" customHeight="1">
       <c r="A68" s="25" t="s">
@@ -4326,13 +4413,15 @@
       <c r="D68" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="E68" s="32" t="s">
+      <c r="E68" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G68" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G68" s="37">
+        <v>43601</v>
+      </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" customHeight="1">
       <c r="A69" s="25" t="s">
@@ -4347,13 +4436,15 @@
       <c r="D69" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="E69" s="32" t="s">
+      <c r="E69" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G69" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G69" s="37">
+        <v>43601</v>
+      </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" customHeight="1">
       <c r="A70" s="25" t="s">
@@ -4368,13 +4459,15 @@
       <c r="D70" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="E70" s="32" t="s">
+      <c r="E70" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G70" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G70" s="37">
+        <v>43601</v>
+      </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" customHeight="1">
       <c r="A71" s="25" t="s">
@@ -4389,13 +4482,15 @@
       <c r="D71" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="E71" s="32" t="s">
+      <c r="E71" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G71" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G71" s="37">
+        <v>43601</v>
+      </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" customHeight="1">
       <c r="A72" s="25" t="s">
@@ -4410,13 +4505,15 @@
       <c r="D72" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="E72" s="32" t="s">
+      <c r="E72" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F72" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G72" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G72" s="37">
+        <v>43601</v>
+      </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" customHeight="1">
       <c r="A73" s="25" t="s">
@@ -4431,13 +4528,15 @@
       <c r="D73" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="E73" s="32" t="s">
+      <c r="E73" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F73" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G73" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1">
       <c r="A74" s="25" t="s">
@@ -4452,13 +4551,15 @@
       <c r="D74" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="E74" s="32" t="s">
+      <c r="E74" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F74" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G74" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G74" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" customHeight="1">
       <c r="A75" s="25" t="s">
@@ -4473,13 +4574,15 @@
       <c r="D75" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="E75" s="32" t="s">
+      <c r="E75" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F75" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G75" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G75" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" customHeight="1">
       <c r="A76" s="25" t="s">
@@ -4494,13 +4597,15 @@
       <c r="D76" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E76" s="32" t="s">
+      <c r="E76" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F76" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G76" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G76" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" customHeight="1">
       <c r="A77" s="25" t="s">
@@ -4515,13 +4620,15 @@
       <c r="D77" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="E77" s="32" t="s">
+      <c r="E77" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F77" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G77" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G77" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" customHeight="1">
       <c r="A78" s="25" t="s">
@@ -4536,13 +4643,15 @@
       <c r="D78" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="E78" s="32" t="s">
+      <c r="E78" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F78" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G78" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G78" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="79" spans="1:7" ht="15.75" customHeight="1">
       <c r="A79" s="25" t="s">
@@ -4557,13 +4666,15 @@
       <c r="D79" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="E79" s="32" t="s">
+      <c r="E79" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F79" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G79" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G79" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1">
       <c r="A80" s="25" t="s">
@@ -4578,13 +4689,15 @@
       <c r="D80" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="E80" s="32" t="s">
+      <c r="E80" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F80" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G80" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G80" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" customHeight="1">
       <c r="A81" s="25" t="s">
@@ -4599,13 +4712,15 @@
       <c r="D81" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="E81" s="32" t="s">
+      <c r="E81" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F81" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G81" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G81" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="82" spans="1:7" ht="15.75" customHeight="1">
       <c r="A82" s="25" t="s">
@@ -4620,13 +4735,15 @@
       <c r="D82" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="E82" s="32" t="s">
+      <c r="E82" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F82" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G82" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G82" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" customHeight="1">
       <c r="A83" s="25" t="s">
@@ -4641,13 +4758,15 @@
       <c r="D83" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="E83" s="32" t="s">
+      <c r="E83" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F83" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G83" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G83" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" customHeight="1">
       <c r="A84" s="25" t="s">
@@ -4662,13 +4781,15 @@
       <c r="D84" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="E84" s="32" t="s">
+      <c r="E84" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F84" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G84" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G84" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="85" spans="1:7" ht="15.75" customHeight="1">
       <c r="A85" s="25" t="s">
@@ -4683,13 +4804,15 @@
       <c r="D85" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="E85" s="32" t="s">
+      <c r="E85" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F85" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G85" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G85" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="25" t="s">
@@ -4704,13 +4827,15 @@
       <c r="D86" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="E86" s="32" t="s">
+      <c r="E86" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F86" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G86" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G86" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="87" spans="1:7" ht="15.75" customHeight="1">
       <c r="A87" s="25" t="s">
@@ -4725,13 +4850,15 @@
       <c r="D87" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="E87" s="32" t="s">
+      <c r="E87" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F87" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G87" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G87" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="88" spans="1:7" ht="15.75" customHeight="1">
       <c r="A88" s="25" t="s">
@@ -4746,13 +4873,15 @@
       <c r="D88" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="E88" s="32" t="s">
+      <c r="E88" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F88" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G88" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G88" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="89" spans="1:7" ht="15.75" customHeight="1">
       <c r="A89" s="25" t="s">
@@ -4767,13 +4896,15 @@
       <c r="D89" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="E89" s="32" t="s">
+      <c r="E89" s="31" t="s">
         <v>278</v>
       </c>
       <c r="F89" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G89" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G89" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" customHeight="1">
       <c r="A90" s="25" t="s">
@@ -4788,13 +4919,15 @@
       <c r="D90" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="E90" s="32" t="s">
+      <c r="E90" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F90" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G90" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G90" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" customHeight="1">
       <c r="A91" s="25" t="s">
@@ -4809,13 +4942,15 @@
       <c r="D91" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="E91" s="32" t="s">
+      <c r="E91" s="31" t="s">
         <v>280</v>
       </c>
       <c r="F91" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G91" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G91" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" customHeight="1">
       <c r="A92" s="25" t="s">
@@ -4830,13 +4965,15 @@
       <c r="D92" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="E92" s="32" t="s">
+      <c r="E92" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F92" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G92" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G92" s="37">
+        <v>43604</v>
+      </c>
     </row>
     <row r="93" spans="1:7" ht="13.5" customHeight="1">
       <c r="A93" s="9"/>
@@ -6951,7 +7088,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{82A3D7BE-B150-4700-8673-4F46824D7767}">
           <x14:formula1>
             <xm:f>Responsabilidades!$G$24:$G$27</xm:f>
           </x14:formula1>
